--- a/graph_generation/results_pathCompare/gpt3.5/level_7/k_1.xlsx
+++ b/graph_generation/results_pathCompare/gpt3.5/level_7/k_1.xlsx
@@ -52,23 +52,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 3 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- F 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 3 0 0 5 0 0 0
- J 0 0 0 0 0 4 0 0 0 0 5 0 0 2 0 0
- K 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ F 0 2 0 0 4 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 1 0 0 4 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ K 0 0 0 0 0 0 3 0 0 0 0 2 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -96,27 +96,27 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 3 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 5 0 0 0 0 0 0 0 0 0
  D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- G 0 0 4 0 0 0 0 0 0 0 2 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 2 0 0 2 0 0 0
- J 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 1 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ E 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0 0
+ F 0 3 0 0 0 0 1 0 0 1 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 5 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -138,26 +138,29 @@
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node M? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M
- A 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 1 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 2 0 0 1 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 2 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 4 0 0 5 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 5
- J 0 0 0 0 0 4 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 1 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0
-Let's list down all the possible paths from node A to node M, and compare to get the answer.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ F 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 0 0 0 3 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ J 0 0 0 0 0 5 0 0 0 0 5 0 0 1 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 2 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -179,25 +182,24 @@
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 0 0 0 4 0 0 0 0 0
- H 0 0 0 0 0 0 5 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 4 0 0
- K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ E 0 0 0 5 0 0 0 0 3 0 0 0 0 0 0
+ F 0 4 0 0 4 0 4 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ H 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0
+ I 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ J 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ L 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+Let's list down all the possible paths from node A to node O, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -225,23 +227,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- F 0 2 0 0 4 0 0 0 0 2 0 0 0 0 0 0
- G 0 0 3 0 0 1 0 4 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 3 0 0 3 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0 0
- K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 2 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 1 0 0 2 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 2 0 0 5 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 3 0 0 5 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -270,22 +272,22 @@
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 0 0 0 3 0 0 0 0 0 0
- G 0 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 3 0 0 2 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
- K 0 0 0 0 0 0 3 0 0 4 0 1 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ F 0 2 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 0 0 0 2 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 3 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 2 0 0 2 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -313,23 +315,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 2 0 0 5 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 2 0 0 3 0 0 0 0 0 0 0
- F 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 4 0 0 3 0 0 0
- J 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 3 0 0 5 0 1 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 3 0 0 2 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 3 0 0 2 0 0 0 0 0
+ H 0 0 0 4 0 0 0 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -357,23 +359,23 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 4 0 0 1 0 0 0 0 0 0
- G 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 4 0 0 1 0 0
- K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 3 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ F 0 3 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 0 0 0 2 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -401,27 +403,27 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 2 0 0 5 0 0 0 0 0 0
- G 0 0 2 0 0 0 0 0 0 0 4 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 4 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 2 0 0 3 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 5 0 0 1 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ J 0 0 0 0 0 5 0 0 0 0 0 0 0 5 0 0
+ K 0 0 0 0 0 0 3 0 0 4 0 2 0 0 1 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -443,157 +445,161 @@
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- D 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- H 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 0 0 0 5 0
- K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- L 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 2 0 0 3 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 4 0 0 3 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 5 0 0 3 0 0 0 0 0
+ H 0 0 0 4 0 0 0 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 5 0 0 5 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
     <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P</t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; F -&gt; G -&gt; C -&gt; D -&gt; H -&gt; I -&gt; M</t>
+    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; H -&gt; I -&gt; J -&gt; F -&gt; G -&gt; K -&gt; O</t>
   </si>
   <si>
     <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P</t>
   </si>
   <si>
-    <t>A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; N -&gt; O</t>
+    <t>A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>Possible paths from A to P:
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; N -&gt; P (cost = 3 + 2 + 5 + 5 + 4 + 5 = 24)
+2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (cost = 3 + 2 + 5 + 5 + 1 = 16)
+3. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P (cost = 3 + 2 + 5 + 2 + 4 + 2 + 2 + 1 = 21)
+4. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; P (cost = 3 + 2 + 5 + 2 + 4 + 2 + 4 = 22)
+The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P.</t>
   </si>
   <si>
     <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (Cost = 3+5+2+4+2 = 16)
-2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (Cost = 3+5+2+1 = 11)
-3. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; M -&gt; P (Cost = 3+5+2+4+3 = 17)
-4. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; P (Cost = 3+5+2+4+3+1 = 18)
-5. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (Cost = 3+5+2+4+3+1+5 = 23)
-The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P with a cost of 11.</t>
+1) A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P    (cost: 3 + 1 + 2 + 3 + 2 = 11)
+2) A -&gt; E -&gt; G -&gt; H -&gt; L -&gt; P    (cost: 5 + 2 + 3 + 2 = 12)
+3) A -&gt; E -&gt; G -&gt; H -&gt; D -&gt; L -&gt; P    (cost: 5 + 2 + 3 + 1 + 2 = 13)
+4) A -&gt; E -&gt; G -&gt; H -&gt; D -&gt; L -&gt; K -&gt; P    (cost: 5 + 2 + 3 + 1 + 2 + 5 = 18)
+5) A -&gt; E -&gt; G -&gt; H -&gt; D -&gt; K -&gt; L -&gt; P    (cost: 5 + 2 + 3 + 1 + 3 + 2 = 16)
+6) A -&gt; E -&gt; G -&gt; H -&gt; D -&gt; K -&gt; O -&gt; P    (cost: 5 + 2 + 3 + 1 + 3 + 4 = 18)
+7) A -&gt; E -&gt; G -&gt; H -&gt; D -&gt; K -&gt; N -&gt; P    (cost: 5 + 2 + 3 + 1 + 3 + 5 = 19)
+The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P, with a cost of 11.</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node P:
+1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (Cost = 14)
+2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (Cost = 11)
+3. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P (Cost = 15)
+4. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; P (Cost = 12)
+5. A -&gt; B -&gt; C -&gt; G -&gt; J -&gt; N -&gt; P (Cost = 18)
+6. A -&gt; E -&gt; H -&gt; L -&gt; P (Cost = 7)
+7. A -&gt; E -&gt; H -&gt; P (Cost = 4)
+8. A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; P (Cost = 12)
+9. A -&gt; F -&gt; E -&gt; H -&gt; L -&gt; P (Cost = 9)
+10. A -&gt; F -&gt; E -&gt; H -&gt; P (Cost = 6)
+11. A -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P (Cost = 14)
+12. A -&gt; F -&gt; G -&gt; H -&gt; P (Cost = 11)
+13. A -&gt; F -&gt; G -&gt; J -&gt; N -&gt; P (Cost = 17)
+14. A -&gt; F -&gt; G -&gt; K -&gt; L -&gt; P (Cost = 16)
+15. A -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P (Cost = 15)
+16. A -&gt; F -&gt; G -&gt; K -&gt; P (Cost = 14)
+The least cost path from node A to node P is A -&gt; E -&gt; H -&gt; P with a cost of 4.</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node O:
+1) A -&gt; D -&gt; H -&gt; I -&gt; N -&gt; O (Cost: 3 + 2 + 1 + 2 + 5 = 13)
+2) A -&gt; D -&gt; H -&gt; L -&gt; P -&gt; O (Cost: 3 + 2 + 1 + 5 + 4 = 15)
+3) A -&gt; D -&gt; E -&gt; J -&gt; O (Cost: 3 + 5 + 4 + 2 = 14)
+4) A -&gt; D -&gt; E -&gt; K -&gt; O (Cost: 3 + 5 + 3 + 2 = 13)
+The least cost path from node A to node O is A -&gt; D -&gt; E -&gt; K -&gt; O with a cost of 13.</t>
+  </si>
+  <si>
+    <t>Here are the possible paths from node A to node P:
+1. A -&gt; B -&gt; E -&gt; J -&gt; O -&gt; P   (cost: 4 + 3 + 5 + 5 = 17)
+2. A -&gt; B -&gt; F -&gt; J -&gt; O -&gt; P   (cost: 2 + 2 + 5 + 5 = 14)
+3. A -&gt; C -&gt; G -&gt; J -&gt; O -&gt; P   (cost: 1 + 3 + 5 + 5 = 14)
+4. A -&gt; B -&gt; F -&gt; E -&gt; J -&gt; O -&gt; P   (cost: 2 + 1 + 5 + 5 + 5 = 18)
+5. A -&gt; C -&gt; G -&gt; J -&gt; F -&gt; E -&gt; J -&gt; O -&gt; P   (cost: 1 + 3 + 5 + 2 + 1 + 5 + 5 = 22)
+6. A -&gt; C -&gt; G -&gt; J -&gt; F -&gt; B -&gt; E -&gt; J -&gt; O -&gt; P   (cost: 1 + 3 + 5 + 2 + 4 + 5 + 5 + 5 = 35)
+The least cost path from node A to node P is path 2: A -&gt; B -&gt; F -&gt; J -&gt; O -&gt; P, with a cost of 14.</t>
   </si>
   <si>
     <t>Possible paths from A to P:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (total cost = 3 + 3 + 1 + 2 + 1 + 5 = 15)
-2. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; P (total cost = 3 + 2 + 4 + 2 + 1 + 4 = 16)
-3. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; L -&gt; P (total cost = 3 + 2 + 4 + 2 + 1 + 1 + 2 = 15)
-4. A -&gt; B -&gt; C -&gt; D -&gt; G -&gt; J -&gt; N -&gt; P (total cost = 3 + 3 + 1 + 4 + 2 + 1 + 4 = 18)
-5. A -&gt; B -&gt; C -&gt; D -&gt; G -&gt; K -&gt; L -&gt; P (total cost = 3 + 3 + 1 + 4 + 2 + 1 + 1 + 2 = 17)
-Therefore, the least cost path from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P with a total cost of 15.</t>
-  </si>
-  <si>
-    <t>Possible paths from A to M:
-1. A -&gt; B -&gt; F -&gt; J -&gt; M (Cost: 1 + 4 + 4 + 1 = 10)
-2. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; M (Cost: 1 + 4 + 4 + 2 + 1 = 12)
-3. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; M (Cost: 1 + 4 + 4 + 2 + 1 + 1 = 13)
-4. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P -&gt; M (Cost: 1 + 4 + 4 + 2 + 1 + 1 + 2 = 15)
-5. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; H -&gt; M (Cost: 1 + 4 + 4 + 2 + 1 + 1 + 5 = 18)
-6. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; H -&gt; D -&gt; M (Cost: 1 + 4 + 4 + 2 + 1 + 1 + 5 + 1 = 19)
-7. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; H -&gt; D -&gt; G -&gt; M (Cost: 1 + 4 + 4 + 2 + 1 + 1 + 5 + 1 + 1 = 20)
-8. A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; H -&gt; D -&gt; G -&gt; C -&gt; M (Cost: 1 + 4 + 4 + 2 + 1 + 1 + 5 + 1 + 1 + 2 = 22)
-The least cost path from node A to node M is A -&gt; B -&gt; F -&gt; J -&gt; M with a cost of 10.</t>
-  </si>
-  <si>
-    <t>The possible paths from node A to node P are:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (cost = 10)
-2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (cost = 8)
-3. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; N -&gt; P (cost = 12)
-4. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; O -&gt; P (cost = 14)
-5. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; P (cost = 10)
-6. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (cost = 9)
-The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P, with a total cost of 9.</t>
+1) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (cost = 5 + 5 + 2 + 1 + 2 + 4 = 19)
+2) A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P (cost = 3 + 2 + 4 + 2 + 3 + 1 = 15)
+3) A -&gt; E -&gt; G -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P (cost = 3 + 5 + 2 + 4 + 2 + 3 + 1 = 20)
+4) A -&gt; E -&gt; G -&gt; H -&gt; D -&gt; C -&gt; B -&gt; L -&gt; P (cost = 3 + 5 + 4 + 1 + 2 + 5 + 2 + 4 = 26)
+The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P, with a total cost of 15.</t>
+  </si>
+  <si>
+    <t>Possible paths:
+1. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P (cost = 12)
+2. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P (cost = 12)
+3. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; D -&gt; E -&gt; P (cost = 13)
+4. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (cost = 12)
+5. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; P (cost = 9)
+6. A -&gt; E -&gt; P (cost = 5)
+The least cost path from node A to node P is: A -&gt; E -&gt; P with a cost of 5.</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to P:
+1) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (Cost: 4)
+2) A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P (Cost: 5)
+3) A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; D -&gt; L -&gt; P (Cost: 7)
+4) A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; D -&gt; L -&gt; K -&gt; P (Cost: 8)
+5) A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; D -&gt; L -&gt; K -&gt; O -&gt; P (Cost: 13)
+6) A -&gt; E -&gt; D -&gt; H -&gt; L -&gt; P (Cost: 7)
+7) A -&gt; E -&gt; D -&gt; H -&gt; D -&gt; L -&gt; P (Cost: 9)
+8) A -&gt; E -&gt; D -&gt; H -&gt; D -&gt; L -&gt; K -&gt; P (Cost: 10)
+9) A -&gt; E -&gt; D -&gt; H -&gt; D -&gt; L -&gt; K -&gt; O -&gt; P (Cost: 15)
+The least cost path from node A to P is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P with a cost of 4.</t>
   </si>
   <si>
     <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P
-2. A -&gt; B -&gt; F -&gt; E -&gt; P
-3. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; P
-Comparing the costs:
-1. Cost = 5 + 1 + 3 + 5 = 14
-2. Cost = 2 + 4 = 6
-3. Cost = 2 + 1 + 5 = 8
-The least cost path from node A to node P is A -&gt; B -&gt; F -&gt; E -&gt; P with a cost of 6.</t>
-  </si>
-  <si>
-    <t>Possible paths from A to P:
-1) A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (cost: 5 + 3 + 5 + 1 = 14)
-2) A -&gt; B -&gt; E -&gt; I -&gt; J -&gt; P (cost: 3 + 4 + 3 + 4 = 14)
-3) A -&gt; C -&gt; G -&gt; J -&gt; P (cost: 1 + 3 + 4 = 8)
-4) A -&gt; B -&gt; F -&gt; K -&gt; P (cost: 4 + 4 + 1 = 9)
-5) A -&gt; B -&gt; F -&gt; K -&gt; L -&gt; P (cost: 4 + 4 + 1 + 1 = 10)
-6) A -&gt; B -&gt; F -&gt; L -&gt; P (cost: 4 + 1 + 1 = 6)
-7) A -&gt; C -&gt; G -&gt; P (cost: 1 + 3 = 4)
-8) A -&gt; E -&gt; P (cost: 4)
-The least cost path from node A to node P is path 7) A -&gt; C -&gt; G -&gt; P with a cost of 4.
-So, the sequence of nodes is A -&gt; C -&gt; G -&gt; P.</t>
+1. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P (Cost = 20)
+2. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P (Cost = 20)
+3. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P (Cost = 20)
+4. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P (Cost = 20)
+5. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P (Cost = 20)
+6. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P (Cost = 20)
+7. A -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (Cost = 14)
+8. A -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (Cost = 14)
+9. A -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (Cost = 14)
+10. A -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (Cost = 14)
+The least cost path from node A to node P is A -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P with a cost of 14.</t>
   </si>
   <si>
     <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (total cost: 19)
-2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (total cost: 15)
-3. A -&gt; B -&gt; C -&gt; D -&gt; P (total cost: 12)
-4. A -&gt; B -&gt; C -&gt; P (total cost: 9)
-5. A -&gt; B -&gt; P (total cost: 7)
-6. A -&gt; P (total cost: 5)
-The least cost path from node A to node P is A -&gt; P, with a total cost of 5.</t>
-  </si>
-  <si>
-    <t>Possible paths from A to P:
-1. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P (Cost = 4 + 1 + 3 + 5 + 3 + 1 + 2 + 2 = 21)
-2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (Cost = 4 + 1 + 3 + 5 + 2 + 5 = 20)
-3. A -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P (Cost = 1 + 4 + 2 + 2 + 2 = 11)
-4. A -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P (Cost = 1 + 4 + 2 + 2 + 5 = 14)
-5. A -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P (Cost = 1 + 4 + 2 + 1 + 2 = 10)
-The least cost path from node A to node P is A -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P with a cost of 10.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P
-   Total cost: 1 + 1 + 5 + 5 + 3 + 4 = 19
-2. A -&gt; B -&gt; F -&gt; J -&gt; O -&gt; P
-   Total cost: 1 + 1 + 5 + 2 + 4 = 13
-3. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; P
-   Total cost: 1 + 1 + 5 + 5 + 1 = 13
-4. A -&gt; B -&gt; F -&gt; J -&gt; P
-   Total cost: 1 + 1 + 5 + 1 = 8
-5. A -&gt; B -&gt; F -&gt; P
-   Total cost: 1 + 1 + 1 = 3
-The least cost path from node A to node P is: A -&gt; B -&gt; F -&gt; P with a total cost of 3.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node O:
-1. A -&gt; B -&gt; C -&gt; E -&gt; F -&gt; L -&gt; O (Total cost: 15)
-2. A -&gt; B -&gt; E -&gt; F -&gt; L -&gt; O (Total cost: 11)
-3. A -&gt; B -&gt; E -&gt; F -&gt; K -&gt; O (Total cost: 9)
-4. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; N -&gt; O (Total cost: 12)
-5. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P -&gt; O (Total cost: 17)
-6. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P -&gt; L -&gt; O (Total cost: 19)
-7. A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P -&gt; L -&gt; H -&gt; D -&gt; O (Total cost: 24)
-Therefore, the least cost path from node A to node O is A -&gt; B -&gt; E -&gt; F -&gt; K -&gt; O.</t>
+1. A -&gt; B -&gt; F -&gt; P (cost = 2 + 4 + 0 = 6)
+2. A -&gt; C -&gt; D -&gt; H -&gt; P (cost = 2 + 1 + 4 + 0 = 7)
+3. A -&gt; C -&gt; G -&gt; H -&gt; P (cost = 2 + 0 + 5 + 0 = 7)
+4. A -&gt; C -&gt; K -&gt; L -&gt; P (cost = 2 + 0 + 0 + 2 = 4)
+5. A -&gt; C -&gt; L -&gt; P (cost = 2 + 0 + 2 = 4)
+The least cost path from node A to node P is A -&gt; C -&gt; K -&gt; L -&gt; P.</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -1031,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1042,7 +1048,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1053,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1064,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
